--- a/Features and Issues.xlsx
+++ b/Features and Issues.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dtsolutions\"/>
@@ -16,7 +16,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Features!$A$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Features!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Feature</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Passcode expire after 24 hrs</t>
+  </si>
+  <si>
+    <t>Add status field to Provider DB</t>
   </si>
 </sst>
 </file>
@@ -528,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +587,9 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -592,6 +598,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -600,6 +609,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -608,6 +620,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -635,6 +650,9 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -659,6 +677,9 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
@@ -695,6 +716,9 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -797,6 +821,9 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
@@ -805,6 +832,9 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
@@ -824,16 +854,31 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -853,6 +898,9 @@
       <c r="A32" t="s">
         <v>39</v>
       </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -861,6 +909,9 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -869,6 +920,9 @@
       <c r="A34" t="s">
         <v>43</v>
       </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -877,14 +931,25 @@
       <c r="A35" t="s">
         <v>44</v>
       </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -892,10 +957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,14 +968,17 @@
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
